--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr2.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr2.xlsx
@@ -34,28 +34,25 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>admission_source_id</t>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>admission_type_id</t>
   </si>
   <si>
+    <t>diabetesmed</t>
+  </si>
+  <si>
     <t>insulin</t>
   </si>
   <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
+    <t>admission_source_id</t>
   </si>
   <si>
     <t>gender</t>
@@ -64,7 +61,10 @@
     <t>a1cresult</t>
   </si>
   <si>
-    <t>diag_1</t>
+    <t>race</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.32857145936715</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.321420990541251</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.291573240268463</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.28385030334762</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.247219128924647</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.237928726731686</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.234208839261854</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.231644603639646</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.231264427088576</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.22952817682833</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.228086609857576</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.224744871391589</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.224744871391589</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.224744871391589</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.222283070166014</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.210505968575663</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.209098091405465</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.190258492505782</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.131821024781112</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>1.034086827047223</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.031122744895293</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.029971134835631</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.027725853327603</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1008,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="E32">
-        <v>1.02001349415109</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9939031903545938</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7735527379460552</v>
+        <v>0.7670914651577976</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7701002917495889</v>
+        <v>0.7001797510640185</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7340672429311839</v>
+        <v>0.6685504880191332</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7284496226045772</v>
+        <v>0.6576439892513886</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6292243964499847</v>
+        <v>0.6468285881426734</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.625227231419978</v>
+        <v>0.644857801502328</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.6133908800178733</v>
+        <v>0.6382847385042254</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>0.6090470719713593</v>
+        <v>0.6134644266407769</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.566421515598881</v>
+        <v>0.605814409167017</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.5627803054187457</v>
+        <v>0.6024571842037422</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5206182142118773</v>
+        <v>0.5924807054474466</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.4958847036804647</v>
+        <v>0.552023676556062</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.4950737714883372</v>
+        <v>0.5366012813931597</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.4929888180106566</v>
+        <v>0.5288883186691253</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4771076621713461</v>
+        <v>0.5198752449100363</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4743416490252569</v>
+        <v>0.5194560567532861</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,7 +1305,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4693718887282137</v>
+        <v>0.5164890253779878</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4637971141893425</v>
+        <v>0.5036630526336385</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4506274892853486</v>
+        <v>0.4705787527762813</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -1365,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4334406506396177</v>
+        <v>0.4670993664969138</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4278717868425311</v>
+        <v>0.4505452551289851</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4253904643960481</v>
+        <v>0.4505371517817636</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.423062569370805</v>
+        <v>0.4372906995684201</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4225771273642582</v>
+        <v>0.429197537639476</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4110553348554806</v>
+        <v>0.4208127057650866</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,7 +1458,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4017505554096096</v>
+        <v>0.4099910872471539</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4013813558627233</v>
+        <v>0.4066207160484044</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.3995401132124656</v>
+        <v>0.3917600487911918</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3939629434605827</v>
+        <v>0.3889222341312987</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0.3926454799322795</v>
+        <v>0.3836742330172257</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3918872889076926</v>
+        <v>0.380577282168225</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>0.3855876291477126</v>
+        <v>0.3720850714630508</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3818813079129866</v>
+        <v>0.3662062639060792</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3817743233730211</v>
+        <v>0.363234565362658</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1620,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="E68">
-        <v>0.381385035698237</v>
+        <v>0.3595732599803959</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3789873827904606</v>
+        <v>0.3577087626408241</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,7 +1645,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -1654,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3747476955914334</v>
+        <v>0.3534812000074078</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.3681555698318648</v>
+        <v>0.3533606418387291</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3628647481433299</v>
+        <v>0.3518448036282763</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>26</v>
       </c>
       <c r="E73">
-        <v>0.3537876460395188</v>
+        <v>0.3482997558423825</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3431905986777589</v>
+        <v>0.3481553119113958</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,7 +1730,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -1739,7 +1739,7 @@
         <v>26</v>
       </c>
       <c r="E75">
-        <v>0.3430213286581815</v>
+        <v>0.3456907431115676</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1756,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3376870420226384</v>
+        <v>0.3455211881086724</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3365519114017668</v>
+        <v>0.3416297196893269</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3308444554276634</v>
+        <v>0.3387611714043645</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>0.322973508637293</v>
+        <v>0.3362963545672746</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
@@ -1824,7 +1824,7 @@
         <v>26</v>
       </c>
       <c r="E80">
-        <v>0.3175952593509755</v>
+        <v>0.3356349393911262</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1838,10 +1838,10 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3171691790605513</v>
+        <v>0.3352883843105733</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3098724496515031</v>
+        <v>0.317063243737114</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>0.3098026761153553</v>
+        <v>0.3077777791070101</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.3078957874390091</v>
+        <v>0.3067014112277596</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.294337106494529</v>
+        <v>0.3065357730762019</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2933305697608506</v>
+        <v>0.3034443653554812</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E87">
-        <v>0.2904562374056674</v>
+        <v>0.2948007372354218</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2817897743742151</v>
+        <v>0.289938315155487</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2742901925294968</v>
+        <v>0.284780915305222</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,7 +1985,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -1994,7 +1994,7 @@
         <v>28</v>
       </c>
       <c r="E90">
-        <v>0.2682797480937093</v>
+        <v>0.2732084833878566</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -2011,7 +2011,7 @@
         <v>27</v>
       </c>
       <c r="E91">
-        <v>0.2635351787895775</v>
+        <v>0.2642419129249853</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0.2632343885415146</v>
+        <v>0.2637097550083605</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.2619778391231251</v>
+        <v>0.257160691373703</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2581988897471611</v>
+        <v>0.2560049306014811</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,7 +2070,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>25</v>
@@ -2079,7 +2079,7 @@
         <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2519902672910283</v>
+        <v>0.2543936999855387</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2499024009332316</v>
+        <v>0.2440628910074895</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2491868066629749</v>
+        <v>0.2439750182371333</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2483554756674111</v>
+        <v>0.2425089494372606</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>0.2467718196086564</v>
+        <v>0.2419807700124521</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,7 +2155,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
         <v>24</v>
@@ -2164,7 +2164,7 @@
         <v>27</v>
       </c>
       <c r="E100">
-        <v>0.2459897998344459</v>
+        <v>0.2335679257544991</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2430610831191971</v>
+        <v>0.2325098450413034</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,7 +2189,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
@@ -2198,7 +2198,7 @@
         <v>27</v>
       </c>
       <c r="E102">
-        <v>0.2401989906242525</v>
+        <v>0.2315976229846105</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
         <v>28</v>
       </c>
       <c r="E103">
-        <v>0.2373789039155702</v>
+        <v>0.230022976481144</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
         <v>22</v>
@@ -2232,7 +2232,7 @@
         <v>27</v>
       </c>
       <c r="E104">
-        <v>0.2357022603955158</v>
+        <v>0.22931565533546</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
       </c>
       <c r="E105">
-        <v>0.234332955462363</v>
+        <v>0.228168203927927</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0.227187133389694</v>
+        <v>0.2263114114465975</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E107">
-        <v>0.2265500284444253</v>
+        <v>0.2239875114576098</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>0.2251749972712392</v>
+        <v>0.2232865562966413</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2311,13 +2311,13 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>27</v>
       </c>
       <c r="E109">
-        <v>0.2197300411863104</v>
+        <v>0.2209914235945041</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>0.2196879155128945</v>
+        <v>0.2204063895344392</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2182178902359924</v>
+        <v>0.2195704229111213</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2170137045387109</v>
+        <v>0.2121941497531472</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2160701847557923</v>
+        <v>0.2040506273283463</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2160171830198999</v>
+        <v>0.2033769598976624</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
       </c>
       <c r="E115">
-        <v>0.2146935264609745</v>
+        <v>0.2016105713753033</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,7 +2427,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>22</v>
@@ -2436,7 +2436,7 @@
         <v>27</v>
       </c>
       <c r="E116">
-        <v>0.212699855699774</v>
+        <v>0.2008800259493707</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>0.2099428226832575</v>
+        <v>0.2006088294144214</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2058664566866065</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2048557444470612</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2044835516270968</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2037469768982083</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2026397812392421</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2549,13 +2549,13 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2011891309213134</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2006088294144214</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2002092948509367</v>
+        <v>0.1973247679437955</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.1985673178466762</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0.1981115044777438</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0.1977724979473413</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.1958742606172333</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.1957637253262667</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.1942772880820176</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.1942170871023403</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.1942170871023403</v>
+        <v>0.1968328920625236</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E134">
-        <v>0.1942170871023403</v>
+        <v>0.1942535066215682</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E135">
-        <v>0.1942170871023403</v>
+        <v>0.1935218882112016</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.1942170871023403</v>
+        <v>0.1910831911386295</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.1942170871023403</v>
+        <v>0.1910096936826879</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.1942170871023403</v>
+        <v>0.1907242408414058</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.1942170871023403</v>
+        <v>0.190028266709722</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>28</v>
       </c>
       <c r="E140">
-        <v>0.1940092982381323</v>
+        <v>0.1889040643543109</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
         <v>28</v>
       </c>
       <c r="E141">
-        <v>0.1928118758347143</v>
+        <v>0.1887525823957254</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2878,7 +2878,7 @@
         <v>27</v>
       </c>
       <c r="E142">
-        <v>0.1927395204967483</v>
+        <v>0.1883765130389757</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.1927129624105911</v>
+        <v>0.1875807376636054</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E144">
-        <v>0.1927129624105911</v>
+        <v>0.1835749594131884</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.1927129624105911</v>
+        <v>0.182216157405174</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.1927129624105911</v>
+        <v>0.1820005141856189</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0.1927129624105911</v>
+        <v>0.1767905530366091</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E148">
-        <v>0.1927129624105911</v>
+        <v>0.1765075170209751</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E149">
-        <v>0.1927129624105911</v>
+        <v>0.1750279914085764</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E150">
-        <v>0.1927129624105911</v>
+        <v>0.1744119172730636</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3025,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>0.190523335363846</v>
+        <v>0.1729099297170151</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D152" t="s">
         <v>28</v>
       </c>
       <c r="E152">
-        <v>0.1902287046733406</v>
+        <v>0.1724952647922148</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E153">
-        <v>0.1900912133577388</v>
+        <v>0.1707881557530926</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E154">
-        <v>0.1897250736998176</v>
+        <v>0.1695453835442503</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3093,13 +3093,13 @@
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
       </c>
       <c r="E155">
-        <v>0.188463259097603</v>
+        <v>0.1691722982248109</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3110,13 +3110,13 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.1869925222763092</v>
+        <v>0.1690709355669212</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.1868739679020591</v>
+        <v>0.1676825862368408</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
       </c>
       <c r="E158">
-        <v>0.1860167643794019</v>
+        <v>0.1637454894298029</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
       </c>
       <c r="E159">
-        <v>0.1859640731669732</v>
+        <v>0.1634676446419808</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="E160">
-        <v>0.1857581808533337</v>
+        <v>0.1620472186649014</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1829400354121683</v>
+        <v>0.1615123018057716</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
         <v>27</v>
       </c>
       <c r="E162">
-        <v>0.1826184623449423</v>
+        <v>0.1611738548718522</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E163">
-        <v>0.1820658519421353</v>
+        <v>0.1598696013382923</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,7 +3243,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
@@ -3252,7 +3252,7 @@
         <v>28</v>
       </c>
       <c r="E164">
-        <v>0.1820266297584061</v>
+        <v>0.1598515483787165</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.1807385398282086</v>
+        <v>0.159474090560174</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.1800737961173079</v>
+        <v>0.1591449055884993</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E167">
-        <v>0.1789168090251871</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1780886571705783</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E169">
-        <v>0.1755766800693786</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.1754449318089817</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3365,13 +3365,13 @@
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E171">
-        <v>0.1749722314760809</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E172">
-        <v>0.174278107543098</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E173">
-        <v>0.1731780238043274</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E174">
-        <v>0.1686814471936486</v>
+        <v>0.1590108476551277</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
         <v>26</v>
       </c>
       <c r="E175">
-        <v>0.1685490134873845</v>
+        <v>0.1582507381800013</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>0.1670731552389922</v>
+        <v>0.1566044918198483</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.166860388882565</v>
+        <v>0.1563721741695432</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
         <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1656804181501213</v>
+        <v>0.156179111078172</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
         <v>26</v>
       </c>
       <c r="E179">
-        <v>0.1656757975366938</v>
+        <v>0.155557739241874</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3518,13 +3518,13 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1653287830854573</v>
+        <v>0.1547603335829918</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3535,13 +3535,13 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E181">
-        <v>0.1653287830854573</v>
+        <v>0.1522291018740342</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1653287830854573</v>
+        <v>0.1520236423902928</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>0.1653287830854573</v>
+        <v>0.1510427441367597</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1653287830854573</v>
+        <v>0.1507127470883744</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3603,13 +3603,13 @@
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1653287830854573</v>
+        <v>0.1504195996904284</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1653287830854573</v>
+        <v>0.1478354943210555</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E187">
-        <v>0.1653287830854573</v>
+        <v>0.1474221009301088</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E188">
-        <v>0.164814304547685</v>
+        <v>0.1464095710230941</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E189">
-        <v>0.1647922442726245</v>
+        <v>0.1462544848254261</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1638059460624853</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1621739397922378</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1621296756593494</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1591977029559141</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1589883766449518</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1589694324192367</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1519113919242472</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1510993888499749</v>
+        <v>0.1432280388568952</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3824,13 +3824,13 @@
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
         <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1501873465819667</v>
+        <v>0.1431788248362525</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1499768601614793</v>
+        <v>0.1429967320858231</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.1496039361341872</v>
+        <v>0.1427600282775093</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1482489722049047</v>
+        <v>0.1422248931373135</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1473725071526709</v>
+        <v>0.1421315547641019</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3909,13 +3909,13 @@
         <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E203">
-        <v>0.1468714168856456</v>
+        <v>0.1410281595063854</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1468714168856456</v>
+        <v>0.1403053774150718</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1468714168856456</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
         <v>29</v>
       </c>
       <c r="E206">
-        <v>0.1468714168856456</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D207" t="s">
         <v>29</v>
       </c>
       <c r="E207">
-        <v>0.1468714168856456</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
         <v>29</v>
       </c>
       <c r="E208">
-        <v>0.1468714168856456</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
         <v>29</v>
       </c>
       <c r="E209">
-        <v>0.1468714168856456</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D210" t="s">
         <v>29</v>
       </c>
       <c r="E210">
-        <v>0.1468714168856456</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E211">
-        <v>0.146700636292671</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1462103253998221</v>
+        <v>0.1400906780592929</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1443616274252861</v>
+        <v>0.1375916331008012</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
         <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1426168478159099</v>
+        <v>0.1375480181597347</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1408698410992238</v>
+        <v>0.137298514840028</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1401907549931887</v>
+        <v>0.1363342586530325</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E217">
-        <v>0.1393419748747357</v>
+        <v>0.1361881719554062</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4164,13 +4164,13 @@
         <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
         <v>26</v>
       </c>
       <c r="E218">
-        <v>0.1391446008619883</v>
+        <v>0.1359053095134144</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1388412939900048</v>
+        <v>0.1358364328642402</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
         <v>23</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1376907049526193</v>
+        <v>0.1339350764974137</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E221">
-        <v>0.1376907049526193</v>
+        <v>0.1335549180508945</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D222" t="s">
         <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1376907049526193</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D223" t="s">
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1376907049526193</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1376907049526193</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1376907049526193</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1376907049526193</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1376907049526193</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1360368674042488</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1360368674042488</v>
+        <v>0.1333506734525202</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E230">
-        <v>0.1360368674042488</v>
+        <v>0.1327741437266859</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1360368674042488</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1360368674042488</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1360368674042488</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1360368674042488</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1360368674042488</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1359014562835368</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4487,13 +4487,13 @@
         <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1343305757505915</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4504,13 +4504,13 @@
         <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
         <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1343305757505915</v>
+        <v>0.1326190082305819</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.1343305757505915</v>
+        <v>0.1294125307155226</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1343305757505915</v>
+        <v>0.1291917809245675</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>0.1343305757505915</v>
+        <v>0.1281895636633189</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>0.1343305757505915</v>
+        <v>0.1276743214264701</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E243">
-        <v>0.1343305757505915</v>
+        <v>0.1272828397919782</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E244">
-        <v>0.1343305757505915</v>
+        <v>0.1267940968577319</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D245" t="s">
         <v>26</v>
       </c>
       <c r="E245">
-        <v>0.1318483691642117</v>
+        <v>0.1262174948649251</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E246">
-        <v>0.1316949845984461</v>
+        <v>0.1258794841273864</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>24</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E247">
-        <v>0.1312279777997428</v>
+        <v>0.1246642773503844</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D248" t="s">
         <v>26</v>
       </c>
       <c r="E248">
-        <v>0.1298971058695121</v>
+        <v>0.1239113550363236</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1298812164501206</v>
+        <v>0.1235878354804267</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D250" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E250">
-        <v>0.1296216363390843</v>
+        <v>0.1233781054345499</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4725,13 +4725,13 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1294464132305706</v>
+        <v>0.122705294736968</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E252">
-        <v>0.1286391793135339</v>
+        <v>0.1220250987738415</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D253" t="s">
         <v>28</v>
       </c>
       <c r="E253">
-        <v>0.128301009271364</v>
+        <v>0.120547206583501</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D254" t="s">
         <v>26</v>
       </c>
       <c r="E254">
-        <v>0.1265127992602873</v>
+        <v>0.1202145335511004</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D255" t="s">
         <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1264722412254765</v>
+        <v>0.119965401104813</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1261465736577332</v>
+        <v>0.119760594583759</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C257" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1257275713753731</v>
+        <v>0.1173639607048874</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E258">
-        <v>0.1245040909197643</v>
+        <v>0.1165853250180953</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D259" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1238473185235215</v>
+        <v>0.1164363181679485</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4878,13 +4878,13 @@
         <v>15</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
         <v>26</v>
       </c>
       <c r="E260">
-        <v>0.1221037346489574</v>
+        <v>0.1149256108235736</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
         <v>26</v>
       </c>
       <c r="E261">
-        <v>0.1218992961382374</v>
+        <v>0.1120463738181797</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1214616360755451</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1203176869731884</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1193485171762159</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1190213921602436</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1189857564348415</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1188145673411455</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D268" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1155161304066952</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D269" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1147564495371874</v>
+        <v>0.1117199336622361</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
         <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1145740297497529</v>
+        <v>0.1114436564413423</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D271" t="s">
         <v>28</v>
       </c>
       <c r="E271">
-        <v>0.1141619466813172</v>
+        <v>0.1108140904757044</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1141216353840724</v>
+        <v>0.1103907409618806</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C273" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1136050873524208</v>
+        <v>0.1098144625297771</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E274">
-        <v>0.1127867230915761</v>
+        <v>0.1092771830327453</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1113213110522971</v>
+        <v>0.1088727829399256</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
         <v>21</v>
       </c>
       <c r="D276" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E276">
-        <v>0.1113213110522971</v>
+        <v>0.1086852270872828</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E277">
-        <v>0.1113213110522971</v>
+        <v>0.108389180294497</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1113213110522971</v>
+        <v>0.1082760325102483</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E279">
-        <v>0.1113213110522971</v>
+        <v>0.1079817478632881</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E280">
-        <v>0.1113213110522971</v>
+        <v>0.1066084890925938</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E281">
-        <v>0.1113213110522971</v>
+        <v>0.1065005606603646</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1113213110522971</v>
+        <v>0.1056792240747841</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D283" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>0.1112660605471159</v>
+        <v>0.1048884837779744</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>0.1112660605471159</v>
+        <v>0.1047812138585007</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D285" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E285">
-        <v>0.1112660605471159</v>
+        <v>0.1031366473425428</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D286" t="s">
         <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1112660605471159</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
         <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1112660605471159</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D288" t="s">
         <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1112660605471159</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1112660605471159</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
       </c>
       <c r="E290">
-        <v>0.1112660605471159</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C291" t="s">
         <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1106443567717586</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1105607168538513</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1100774022592668</v>
+        <v>0.102877824996157</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1080549538316584</v>
+        <v>0.1024782985101521</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
         <v>26</v>
       </c>
       <c r="E295">
-        <v>0.1078380706793075</v>
+        <v>0.1018308451279491</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.1068114415710782</v>
+        <v>0.1011660697529492</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5507,13 +5507,13 @@
         <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D297" t="s">
         <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1057837487713716</v>
+        <v>0.1009730461116781</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
         <v>21</v>
       </c>
       <c r="D298" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.1051301472423667</v>
+        <v>0.1007710117800905</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D299" t="s">
         <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1048080009745467</v>
+        <v>0.1005481428590751</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D300" t="s">
         <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1030829174007188</v>
+        <v>0.1004670477021307</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1027821572598634</v>
+        <v>0.1004081221840095</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
         <v>26</v>
       </c>
       <c r="E302">
-        <v>0.101631241570343</v>
+        <v>0.0993317936816166</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
         <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1007281929050588</v>
+        <v>0.09929896746487829</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D304" t="s">
         <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1005154520672821</v>
+        <v>0.09826514936661317</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C305" t="s">
         <v>19</v>
       </c>
       <c r="D305" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E305">
-        <v>0.1003065407444244</v>
+        <v>0.09758500051403819</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D306" t="s">
         <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D307" t="s">
         <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D308" t="s">
         <v>29</v>
       </c>
       <c r="E308">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
         <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
         <v>29</v>
       </c>
       <c r="E310">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
         <v>29</v>
       </c>
       <c r="E311">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D312" t="s">
         <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1003065407444244</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E313">
-        <v>0.09899605062554891</v>
+        <v>0.0955668568943876</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E314">
-        <v>0.09882384108943322</v>
+        <v>0.09477210866624478</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D315" t="s">
         <v>26</v>
       </c>
       <c r="E315">
-        <v>0.09801216509306594</v>
+        <v>0.09398296990802957</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
         <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.09786581423044609</v>
+        <v>0.09328230187686672</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5847,13 +5847,13 @@
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D317" t="s">
         <v>26</v>
       </c>
       <c r="E317">
-        <v>0.09769107878744908</v>
+        <v>0.08977861140205014</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D318" t="s">
         <v>28</v>
       </c>
       <c r="E318">
-        <v>0.09679858081500312</v>
+        <v>0.08960769269239822</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D319" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E319">
-        <v>0.09599470803632601</v>
+        <v>0.08909913017326862</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,7 +5895,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
         <v>23</v>
@@ -5904,7 +5904,7 @@
         <v>28</v>
       </c>
       <c r="E320">
-        <v>0.09574577610375637</v>
+        <v>0.08827880296811549</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C321" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>0.09508352675262075</v>
+        <v>0.08819872834407699</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D322" t="s">
         <v>26</v>
       </c>
       <c r="E322">
-        <v>0.09304542634669401</v>
+        <v>0.08786929912817119</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C323" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D323" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E323">
-        <v>0.09278787895207799</v>
+        <v>0.0876384136749364</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E324">
-        <v>0.09221456898638933</v>
+        <v>0.08725791865415032</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,7 +5980,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C325" t="s">
         <v>22</v>
@@ -5989,7 +5989,7 @@
         <v>26</v>
       </c>
       <c r="E325">
-        <v>0.0914106019039089</v>
+        <v>0.08416385871911372</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D326" t="s">
         <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09033572998346497</v>
+        <v>0.08401579121033446</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,7 +6014,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C327" t="s">
         <v>23</v>
@@ -6023,7 +6023,7 @@
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.08634587855131369</v>
+        <v>0.08274170376385268</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C328" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D328" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.08634194341237046</v>
+        <v>0.0824818603615658</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E329">
-        <v>0.08409160807679027</v>
+        <v>0.08161747163217908</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E330">
-        <v>0.08346319062875787</v>
+        <v>0.08056445504994464</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>0.08289246733132979</v>
+        <v>0.07982090894601278</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,7 +6099,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C332" t="s">
         <v>24</v>
@@ -6108,7 +6108,7 @@
         <v>26</v>
       </c>
       <c r="E332">
-        <v>0.08171197636757148</v>
+        <v>0.07892777379013258</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C333" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D333" t="s">
         <v>28</v>
       </c>
       <c r="E333">
-        <v>0.08135605428351876</v>
+        <v>0.07840250660551346</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C334" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D334" t="s">
         <v>26</v>
       </c>
       <c r="E334">
-        <v>0.08106125503834818</v>
+        <v>0.07783208865176142</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C335" t="s">
         <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E335">
-        <v>0.08104653649451569</v>
+        <v>0.07691885938710949</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D336" t="s">
         <v>28</v>
       </c>
       <c r="E336">
-        <v>0.08023861535351279</v>
+        <v>0.07607345466050158</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E337">
-        <v>0.07784876841844768</v>
+        <v>0.07532894213042218</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D338" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E338">
-        <v>0.07515055577523903</v>
+        <v>0.07449832599129701</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>0.07491665012272213</v>
+        <v>0.07146446342090139</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.07432432171553087</v>
+        <v>0.07073860031664642</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C341" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>0.07420117098046757</v>
+        <v>0.07054853785342427</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,7 +6269,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C342" t="s">
         <v>21</v>
@@ -6278,7 +6278,7 @@
         <v>28</v>
       </c>
       <c r="E342">
-        <v>0.07405188254836867</v>
+        <v>0.07037695352155734</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.07336823976077021</v>
+        <v>0.06974935469021676</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D344" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E344">
-        <v>0.073257227105876</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.07110608814980836</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E346">
-        <v>0.0709460682028495</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C347" t="s">
         <v>23</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.06963536126476337</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.06909302276862443</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E349">
-        <v>0.06817345890156327</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C350" t="s">
         <v>25</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.06730655239806402</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C351" t="s">
         <v>22</v>
       </c>
       <c r="D351" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.06721886423294424</v>
+        <v>0.06937691625786684</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C352" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.06364909496036</v>
+        <v>0.06903227550037844</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C353" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.06364909496036</v>
+        <v>0.06834516195396131</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E354">
-        <v>0.06364909496036</v>
+        <v>0.06823519153204735</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C355" t="s">
         <v>23</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>0.06364909496036</v>
+        <v>0.06651018644453792</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E356">
-        <v>0.06364909496036</v>
+        <v>0.06548636351090791</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6527,13 +6527,13 @@
         <v>13</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.06364909496036</v>
+        <v>0.06463912827228457</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C358" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.06364909496036</v>
+        <v>0.06461867263275611</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C359" t="s">
         <v>22</v>
       </c>
       <c r="D359" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E359">
-        <v>0.06364909496036</v>
+        <v>0.06404883558919668</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C360" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06348862182812108</v>
+        <v>0.06280167758346444</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C361" t="s">
         <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.06338572518809835</v>
+        <v>0.05990588465413903</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,7 +6609,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C362" t="s">
         <v>21</v>
@@ -6618,7 +6618,7 @@
         <v>28</v>
       </c>
       <c r="E362">
-        <v>0.06257053103522039</v>
+        <v>0.05759975201662318</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D363" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.05894554050789277</v>
+        <v>0.05746938043933011</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E364">
-        <v>0.05810875318077902</v>
+        <v>0.05662035161819346</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C365" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D365" t="s">
         <v>28</v>
       </c>
       <c r="E365">
-        <v>0.0573202325037338</v>
+        <v>0.05593646885399004</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6680,13 +6680,13 @@
         <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
         <v>28</v>
       </c>
       <c r="E366">
-        <v>0.05612798024118808</v>
+        <v>0.0538782217643464</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C367" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.05299873374012583</v>
+        <v>0.05191946836677389</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C368" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D368" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E368">
-        <v>0.05083781063652434</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C369" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
         <v>29</v>
       </c>
       <c r="E369">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C370" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D370" t="s">
         <v>29</v>
       </c>
       <c r="E370">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D371" t="s">
         <v>29</v>
       </c>
       <c r="E371">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D372" t="s">
         <v>29</v>
       </c>
       <c r="E372">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D373" t="s">
         <v>29</v>
       </c>
       <c r="E373">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C374" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D374" t="s">
         <v>29</v>
       </c>
       <c r="E374">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C375" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D375" t="s">
         <v>29</v>
       </c>
       <c r="E375">
-        <v>0.05017449824628703</v>
+        <v>0.05183342062226255</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C376" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D376" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E376">
-        <v>0.05017449824628703</v>
+        <v>0.0487713858372062</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C377" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.04957905782612589</v>
+        <v>0.04864802325254852</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6884,13 +6884,13 @@
         <v>10</v>
       </c>
       <c r="C378" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.04882513023313183</v>
+        <v>0.04696016743588539</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.04773374390706008</v>
+        <v>0.04612890865980365</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.04759308365021266</v>
+        <v>0.0455191125539146</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.04638201792082885</v>
+        <v>0.0395893237915711</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04545429836029106</v>
+        <v>0.03650183202198375</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C383" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D383" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0.04406894903442486</v>
+        <v>0.03346491948568127</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,7 +6983,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C384" t="s">
         <v>23</v>
@@ -6992,7 +6992,7 @@
         <v>26</v>
       </c>
       <c r="E384">
-        <v>0.0403773187777102</v>
+        <v>0.03134233182522747</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C385" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D385" t="s">
         <v>26</v>
       </c>
       <c r="E385">
-        <v>0.04023083519238652</v>
+        <v>0.02716490402132862</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C386" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D386" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386">
-        <v>0.0349506528958104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,16 +7034,16 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E387">
-        <v>0.03187057839593203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,7 +7068,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C389" t="s">
         <v>25</v>
@@ -7085,7 +7085,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C390" t="s">
         <v>25</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C393" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,7 +7153,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C394" t="s">
         <v>23</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C395" t="s">
         <v>21</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C397" t="s">
         <v>25</v>
@@ -7224,7 +7224,7 @@
         <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,7 +7255,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C400" t="s">
         <v>21</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C401" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7292,7 +7292,7 @@
         <v>10</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C403" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C404" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7343,7 +7343,7 @@
         <v>15</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C407" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,7 +7391,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C408" t="s">
         <v>25</v>
@@ -7408,7 +7408,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C409" t="s">
         <v>23</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C411" t="s">
         <v>21</v>
@@ -7459,7 +7459,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C412" t="s">
         <v>21</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,7 +7493,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C414" t="s">
         <v>21</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C416" t="s">
         <v>25</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
